--- a/퀴즈데이터.xlsx
+++ b/퀴즈데이터.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didxo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didxo\Desktop\QuizUnityApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D9072-7A89-4C6E-B299-A8082351BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128C26E8-0B50-4F9A-9693-39FB0FD31C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{9C50DE41-D914-4EC5-91B3-F1C37C1FB4DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9C50DE41-D914-4EC5-91B3-F1C37C1FB4DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1449,10 +1449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>갑신정변과 동학 농민 운동 주도자 청·일 양국 군대의 철수를 요구하였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동학 농민 운동 제2차 봉기 때이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1461,10 +1457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동학 농민 운동 때만 요구하였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>갑신정변을 주도한 김옥균 등 급진 개화파는 혁신 정강 14개조를 내세워 근대 국가를 세우려고 하였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2114,6 +2106,14 @@
   </si>
   <si>
     <t>1926년 순종의 인산일에 학생들이 주도한 6.10 만세 운동이 발생하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동학 농민 운동 때 요구하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑신정변 때 청·일 양국 군대의 철수를 요구하였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2483,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208CE2F6-B4FB-4CD4-BA36-E9A20C6706B8}">
   <dimension ref="A1:D346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B341" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D351" sqref="D351"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2529,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -2613,10 +2613,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>533</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2753,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D26" t="s">
         <v>224</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2966,7 +2966,7 @@
         <v>156</v>
       </c>
       <c r="D34" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D38" t="s">
         <v>214</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D43" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3103,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D44" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3159,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D48" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D56" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3285,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
+        <v>427</v>
+      </c>
+      <c r="D57" t="s">
         <v>429</v>
-      </c>
-      <c r="D57" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
@@ -3330,7 +3330,7 @@
         <v>353</v>
       </c>
       <c r="D60" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3453,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D69" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D74" t="s">
         <v>51</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D77" t="s">
         <v>51</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D79" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D80" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D82" t="s">
         <v>51</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D83" t="s">
         <v>51</v>
@@ -3705,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D87" t="s">
         <v>51</v>
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D88" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D90" t="s">
         <v>51</v>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D91" t="s">
         <v>51</v>
@@ -3789,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D93" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D94" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
+        <v>426</v>
+      </c>
+      <c r="D96" t="s">
         <v>428</v>
-      </c>
-      <c r="D96" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D99" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3960,7 +3960,7 @@
         <v>152</v>
       </c>
       <c r="D105" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3971,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D106" t="s">
         <v>51</v>
@@ -3999,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D108" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
+        <v>421</v>
+      </c>
+      <c r="D110" t="s">
         <v>423</v>
-      </c>
-      <c r="D110" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -4041,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D111" t="s">
         <v>51</v>
@@ -4100,7 +4100,7 @@
         <v>308</v>
       </c>
       <c r="D115" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -4128,7 +4128,7 @@
         <v>363</v>
       </c>
       <c r="D117" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -4139,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D127" t="s">
         <v>51</v>
@@ -4279,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D128" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4363,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D134" t="s">
         <v>51</v>
@@ -4405,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D137" t="s">
         <v>51</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D147" t="s">
         <v>51</v>
@@ -4562,7 +4562,7 @@
         <v>133</v>
       </c>
       <c r="D148" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -4615,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D152" t="s">
         <v>51</v>
@@ -4629,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D153" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4685,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D157" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -4699,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D158" t="s">
         <v>51</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D159" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -4741,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D161" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -4783,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D164" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D166" t="s">
         <v>51</v>
@@ -4825,10 +4825,10 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D167" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D168" t="s">
         <v>51</v>
@@ -4909,10 +4909,10 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D173" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4937,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D175" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4982,7 +4982,7 @@
         <v>142</v>
       </c>
       <c r="D178" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -5094,7 +5094,7 @@
         <v>291</v>
       </c>
       <c r="D186" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5105,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D187" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5136,7 +5136,7 @@
         <v>362</v>
       </c>
       <c r="D189" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5189,10 +5189,10 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D193" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5273,10 +5273,10 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D199" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D212" t="s">
         <v>51</v>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D214" t="s">
         <v>51</v>
@@ -5511,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D216" t="s">
         <v>51</v>
@@ -5525,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D217" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -5553,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D219" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -5609,10 +5609,10 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D223" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5640,7 +5640,7 @@
         <v>110</v>
       </c>
       <c r="D225" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -5651,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="C226" t="s">
+        <v>467</v>
+      </c>
+      <c r="D226" t="s">
         <v>469</v>
-      </c>
-      <c r="D226" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D228" t="s">
         <v>51</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D230" t="s">
         <v>51</v>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D233" t="s">
         <v>115</v>
@@ -5794,7 +5794,7 @@
         <v>112</v>
       </c>
       <c r="D236" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,7 +5808,7 @@
         <v>352</v>
       </c>
       <c r="D237" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D238" t="s">
         <v>200</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D242" t="s">
         <v>232</v>
@@ -5889,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D243" t="s">
         <v>51</v>
@@ -5917,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="C245" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D245" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -5931,10 +5931,10 @@
         <v>0</v>
       </c>
       <c r="C246" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D246" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -5945,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D247" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -5959,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D248" t="s">
         <v>51</v>
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D253" t="s">
         <v>51</v>
@@ -6057,10 +6057,10 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D255" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6099,10 +6099,10 @@
         <v>0</v>
       </c>
       <c r="C258" t="s">
+        <v>468</v>
+      </c>
+      <c r="D258" t="s">
         <v>470</v>
-      </c>
-      <c r="D258" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -6127,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D260" t="s">
         <v>51</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D261" t="s">
         <v>108</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D262" t="s">
         <v>51</v>
@@ -6169,10 +6169,10 @@
         <v>0</v>
       </c>
       <c r="C263" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D263" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6197,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D265" t="s">
         <v>51</v>
@@ -6225,10 +6225,10 @@
         <v>0</v>
       </c>
       <c r="C267" t="s">
+        <v>487</v>
+      </c>
+      <c r="D267" t="s">
         <v>489</v>
-      </c>
-      <c r="D267" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6253,10 +6253,10 @@
         <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D269" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -6270,7 +6270,7 @@
         <v>111</v>
       </c>
       <c r="D270" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -6281,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D271" t="s">
         <v>51</v>
@@ -6298,7 +6298,7 @@
         <v>35</v>
       </c>
       <c r="D272" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -6312,7 +6312,7 @@
         <v>141</v>
       </c>
       <c r="D273" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6323,10 +6323,10 @@
         <v>0</v>
       </c>
       <c r="C274" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D274" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6351,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="C276" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D276" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -6365,10 +6365,10 @@
         <v>0</v>
       </c>
       <c r="C277" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D277" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D283" t="s">
         <v>51</v>
@@ -6547,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D290" t="s">
         <v>51</v>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D297" t="s">
         <v>51</v>
@@ -6673,10 +6673,10 @@
         <v>0</v>
       </c>
       <c r="C299" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D299" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -6687,10 +6687,10 @@
         <v>0</v>
       </c>
       <c r="C300" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D300" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -6704,7 +6704,7 @@
         <v>364</v>
       </c>
       <c r="D301" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -6743,10 +6743,10 @@
         <v>0</v>
       </c>
       <c r="C304" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D304" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -6869,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="C313" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D313" t="s">
         <v>51</v>
@@ -6897,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="C315" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D315" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -7009,10 +7009,10 @@
         <v>0</v>
       </c>
       <c r="C323" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D323" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="C325" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D325" t="s">
         <v>51</v>
@@ -7065,10 +7065,10 @@
         <v>0</v>
       </c>
       <c r="C327" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D327" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -7121,10 +7121,10 @@
         <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D331" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -7191,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="C336" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D336" t="s">
         <v>51</v>
@@ -7205,10 +7205,10 @@
         <v>0</v>
       </c>
       <c r="C337" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D337" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
